--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4019.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4019.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.735636735851697</v>
+        <v>4.701699733734131</v>
       </c>
       <c r="B1">
-        <v>2.559933483957327</v>
+        <v>5.67929744720459</v>
       </c>
       <c r="C1">
-        <v>3.080208015868753</v>
+        <v>5.355366706848145</v>
       </c>
       <c r="D1">
-        <v>3.392376001177249</v>
+        <v>9.202488899230957</v>
       </c>
       <c r="E1">
-        <v>2.023659034560924</v>
+        <v>7.538563251495361</v>
       </c>
     </row>
   </sheetData>
